--- a/nominalPositions.xlsx
+++ b/nominalPositions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\PycharmProjects\auto_montage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\PycharmProjects\montager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:140000_{808776C9-9263-46CA-9F8D-7246924E6AE8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4891C644-73A2-4880-8D4B-847EB8D13F32}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1239,7 +1239,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1468,7 +1468,40 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1477,7 +1510,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1489,18 +1534,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1509,39 +1542,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1856,992 +1856,903 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10:L71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K1" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K2" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K3" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K4" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K5" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K6" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K7" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K8" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K9" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K10" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="7"/>
-      <c r="L11" s="25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
-      <c r="L12" s="25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="16" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14"/>
-      <c r="L13" s="25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
+      <c r="E13" s="19"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21">
+      <c r="C14" s="8"/>
+      <c r="D14" s="3">
         <v>0.75</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="20"/>
-      <c r="L14" s="25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="24" t="s">
+      <c r="E14" s="4"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21">
+      <c r="C15" s="8"/>
+      <c r="D15" s="3">
         <v>0.75</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="20"/>
-      <c r="L15" s="25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="18" t="s">
+      <c r="E15" s="4"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21">
+      <c r="C16" s="8"/>
+      <c r="D16" s="3">
         <v>0.75</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="20"/>
-      <c r="L16" s="25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="24" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21">
+      <c r="C17" s="8"/>
+      <c r="D17" s="3">
         <v>0.75</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="20"/>
-      <c r="L17" s="25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="18" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21">
+      <c r="C18" s="8"/>
+      <c r="D18" s="3">
         <v>0.75</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="20"/>
-      <c r="L18" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="24" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21">
+      <c r="C19" s="8"/>
+      <c r="D19" s="3">
         <v>0.75</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="20"/>
-      <c r="L19" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="18" t="s">
+      <c r="E19" s="4"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21">
+      <c r="C20" s="8"/>
+      <c r="D20" s="3">
         <v>0.75</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="20"/>
-      <c r="L20" s="25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="24" t="s">
+      <c r="E20" s="4"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21">
+      <c r="C21" s="8"/>
+      <c r="D21" s="3">
         <v>0.75</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="20"/>
-      <c r="L21" s="25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="18" t="s">
+      <c r="E21" s="4"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21">
+      <c r="C22" s="8"/>
+      <c r="D22" s="3">
         <v>0.75</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="20"/>
-      <c r="L22" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="24" t="s">
+      <c r="E22" s="4"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21">
+      <c r="C23" s="8"/>
+      <c r="D23" s="3">
         <v>0.75</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="20"/>
-      <c r="L23" s="25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="18" t="s">
+      <c r="E23" s="4"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21">
+      <c r="C24" s="8"/>
+      <c r="D24" s="3">
         <v>0.75</v>
       </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="20"/>
-      <c r="L24" s="25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="24" t="s">
+      <c r="E24" s="4"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21">
+      <c r="C25" s="8"/>
+      <c r="D25" s="3">
         <v>0.75</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="20"/>
-      <c r="L25" s="25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="20"/>
-      <c r="L26" s="25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="24"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="20"/>
-      <c r="L27" s="25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="20"/>
-      <c r="L28" s="25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="24"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="18"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="24"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="20"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="8"/>
     </row>
     <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="24"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="20"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="8"/>
     </row>
     <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="18"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="20"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="24"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="20"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="18"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="20"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="24"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="20"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="20"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="8"/>
     </row>
     <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="24"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="20"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="8"/>
     </row>
     <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="18"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="20"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="8"/>
     </row>
     <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="24"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="20"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="8"/>
     </row>
     <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="18"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="20"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="8"/>
     </row>
     <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="24"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="20"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="8"/>
     </row>
     <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="18"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="20"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="8"/>
     </row>
     <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="24"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="20"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="8"/>
     </row>
     <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="18"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="20"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="8"/>
     </row>
     <row r="47" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="24"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="20"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="8"/>
     </row>
     <row r="48" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="18"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="20"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="8"/>
     </row>
     <row r="49" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="24"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="20"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="8"/>
     </row>
     <row r="50" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="18"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="20"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="8"/>
     </row>
     <row r="51" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="24"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="20"/>
+      <c r="A51" s="5"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="8"/>
     </row>
     <row r="52" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="18"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="20"/>
+      <c r="A52" s="2"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="8"/>
     </row>
     <row r="53" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="24"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="20"/>
+      <c r="A53" s="5"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="8"/>
     </row>
     <row r="54" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="18"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="20"/>
+      <c r="A54" s="2"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="8"/>
     </row>
     <row r="55" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="24"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="20"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="8"/>
     </row>
     <row r="56" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="18"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="20"/>
+      <c r="A56" s="2"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="8"/>
     </row>
     <row r="57" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="24"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="20"/>
+      <c r="A57" s="5"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="8"/>
     </row>
     <row r="58" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="18"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="20"/>
+      <c r="A58" s="2"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="8"/>
     </row>
     <row r="59" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="24"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="20"/>
+      <c r="A59" s="5"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="8"/>
     </row>
     <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="18"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="20"/>
+      <c r="A60" s="2"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="8"/>
     </row>
     <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="24"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="20"/>
+      <c r="A61" s="5"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="8"/>
     </row>
     <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="18"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="20"/>
+      <c r="A62" s="2"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="8"/>
     </row>
     <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="24"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="23"/>
-      <c r="J63" s="20"/>
+      <c r="A63" s="5"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="8"/>
     </row>
     <row r="64" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="18"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="20"/>
+      <c r="A64" s="2"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="8"/>
     </row>
     <row r="65" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="24"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23"/>
-      <c r="J65" s="20"/>
+      <c r="A65" s="5"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="8"/>
     </row>
     <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="18"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="20"/>
+      <c r="A66" s="2"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="8"/>
     </row>
     <row r="67" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="24"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="23"/>
-      <c r="J67" s="20"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="8"/>
     </row>
     <row r="68" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="18"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23"/>
-      <c r="I68" s="23"/>
-      <c r="J68" s="20"/>
+      <c r="A68" s="2"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="8"/>
     </row>
     <row r="69" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="24"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
-      <c r="I69" s="23"/>
-      <c r="J69" s="20"/>
+      <c r="A69" s="5"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="8"/>
     </row>
     <row r="70" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="18"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
-      <c r="I70" s="23"/>
-      <c r="J70" s="20"/>
+      <c r="A70" s="2"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="8"/>
     </row>
     <row r="71" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="24"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="23"/>
-      <c r="J71" s="20"/>
+      <c r="A71" s="5"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="F51:J51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="F52:J52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="F48:J48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="F50:J50"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="F46:J46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="F47:J47"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="F43:J43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="F41:J41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="F20:J20"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="F15:J15"/>
     <mergeCell ref="B16:C16"/>
@@ -2855,6 +2766,114 @@
     <mergeCell ref="F11:J13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="F14:J14"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="F41:J41"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="F46:J46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="F47:J47"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="F43:J43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="F51:J51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="F52:J52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="F48:J48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="F68:J68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
